--- a/output/fit_clients/fit_round_423.xlsx
+++ b/output/fit_clients/fit_round_423.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1806626621.653932</v>
+        <v>2240838889.607462</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09020711834097794</v>
+        <v>0.08838619642384464</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03817170458286615</v>
+        <v>0.03976729755661877</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>903313280.4841816</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1643912476.572587</v>
+        <v>2096401587.314756</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1209508384808817</v>
+        <v>0.1690237098047134</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03837088366610604</v>
+        <v>0.0342260752784159</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>821956223.2121106</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5199257830.815383</v>
+        <v>5165868855.915529</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1656888796947017</v>
+        <v>0.1156605371677081</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0237827089239461</v>
+        <v>0.03711665459678822</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>152</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2599629014.563483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3397485847.71043</v>
+        <v>3866732264.324667</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1055050612180844</v>
+        <v>0.07102754576571321</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04221731102147553</v>
+        <v>0.04218978119009453</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>156</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1698742967.400849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2095264965.961905</v>
+        <v>2630638449.17939</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1349378404420277</v>
+        <v>0.1088926620552438</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04642111062888883</v>
+        <v>0.03980167716875911</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1047632502.284542</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2514037091.291631</v>
+        <v>2412240714.516803</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0923826298538384</v>
+        <v>0.06505494381340136</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02992718293567115</v>
+        <v>0.03489640038971087</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>133</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1257018557.343887</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3123994371.946618</v>
+        <v>3747495235.48527</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1503038637790025</v>
+        <v>0.1810519427305769</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0313852864559885</v>
+        <v>0.03138143360457065</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>135</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1561997256.178082</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1975081855.760364</v>
+        <v>2175912094.275183</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1364937810991707</v>
+        <v>0.1964960219777183</v>
       </c>
       <c r="G9" t="n">
-        <v>0.025005421324243</v>
+        <v>0.03357241508505573</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>987540957.9637048</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5068652968.284743</v>
+        <v>5504333973.955582</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1646752430100012</v>
+        <v>0.1715887944146145</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04430632358799191</v>
+        <v>0.05401438340825302</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>178</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2534326588.821577</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3805492201.362626</v>
+        <v>3517526560.825786</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1305766334850293</v>
+        <v>0.1603753632309224</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0479925918476903</v>
+        <v>0.04003504807670859</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>175</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1902746099.853573</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2101293211.458117</v>
+        <v>2694157388.354782</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1265111700266983</v>
+        <v>0.1400381178106415</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03857148688856149</v>
+        <v>0.05140483705375558</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>144</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1050646541.44436</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3379464408.782986</v>
+        <v>4469036073.992742</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09878706119004507</v>
+        <v>0.06595762648829809</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02733518949593389</v>
+        <v>0.02067036831487221</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>142</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1689732290.855215</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3824333513.504365</v>
+        <v>2737417744.526834</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1489572622135027</v>
+        <v>0.1757284779850836</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02789524112221425</v>
+        <v>0.04007368048282259</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>136</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1912166731.51382</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1528218204.840425</v>
+        <v>1278501891.538187</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08490405925912808</v>
+        <v>0.09624450357152398</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04097948958602133</v>
+        <v>0.03361993378992075</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>764109194.3368288</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1846092652.93737</v>
+        <v>2714051444.768064</v>
       </c>
       <c r="F16" t="n">
-        <v>0.103008987380905</v>
+        <v>0.1007301898751447</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03534311173841032</v>
+        <v>0.04770038384677527</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>86</v>
-      </c>
-      <c r="J16" t="n">
-        <v>923046415.7331029</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4333535623.503313</v>
+        <v>4062468625.598318</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1349893239931569</v>
+        <v>0.1747405414056102</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04867150865884916</v>
+        <v>0.04615446418949879</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>126</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2166767829.837711</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2893160049.531142</v>
+        <v>3610096426.780063</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1477313643317165</v>
+        <v>0.1153030006887589</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02643402784823476</v>
+        <v>0.02708256915828282</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>138</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1446580062.738121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1132069531.554267</v>
+        <v>839831131.8829594</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1175417637348285</v>
+        <v>0.1430350044963447</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01897154771927432</v>
+        <v>0.01901472985150104</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>566034827.1812085</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2063901158.402889</v>
+        <v>2133529509.382658</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1308365572851347</v>
+        <v>0.1194324301961168</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01956805269438388</v>
+        <v>0.02420868024795371</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>57</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1031950598.742218</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1971765547.128744</v>
+        <v>2195152925.021904</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09918102814630106</v>
+        <v>0.09899353793500563</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03331620405203628</v>
+        <v>0.03161752104173051</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>985882812.2438785</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2538994895.511561</v>
+        <v>3527982155.55117</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1072691614949026</v>
+        <v>0.1325112435352394</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04550093346632293</v>
+        <v>0.03771978885525979</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>118</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1269497536.910211</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1253966955.385484</v>
+        <v>1075520985.797939</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1221540144152092</v>
+        <v>0.1302240786075309</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04571056933700557</v>
+        <v>0.04255355857863567</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>626983505.0943379</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4110832682.809025</v>
+        <v>2749610571.197029</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1469292887679585</v>
+        <v>0.1359997460229751</v>
       </c>
       <c r="G24" t="n">
-        <v>0.037634996361427</v>
+        <v>0.02611059880389043</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>123</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2055416301.967398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1059990791.341105</v>
+        <v>1166607834.686934</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09405041475610171</v>
+        <v>0.1157948374796813</v>
       </c>
       <c r="G25" t="n">
-        <v>0.028180286449382</v>
+        <v>0.01935934884617031</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>529995445.865105</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1205565648.360065</v>
+        <v>1255383174.005574</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07865306495780748</v>
+        <v>0.07935589175240841</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03634694391139114</v>
+        <v>0.03845525788371423</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>602782846.6401252</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3308638077.132768</v>
+        <v>3086690515.472315</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1271952530580329</v>
+        <v>0.1070246753060479</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02306818825008427</v>
+        <v>0.0211328831322393</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1654319083.07602</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3603559318.426628</v>
+        <v>2765287311.65683</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1103838004008576</v>
+        <v>0.1383109399689404</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0481966458031924</v>
+        <v>0.04397864395756604</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>136</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1801779722.875467</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3942699263.587936</v>
+        <v>5261056477.229793</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1163942107010261</v>
+        <v>0.143992629290896</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03189902289911847</v>
+        <v>0.03991446008842835</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>187</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1971349652.631765</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2231705816.257366</v>
+        <v>1946423883.923481</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1384540208481262</v>
+        <v>0.1030227700025192</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02555456522162687</v>
+        <v>0.03217345970986928</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1115852971.994552</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1125448468.551968</v>
+        <v>1072274871.378928</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07072974731063657</v>
+        <v>0.08833870376069619</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03409688205008833</v>
+        <v>0.0484405192253121</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>562724203.2942276</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1437430508.001485</v>
+        <v>1664824727.325713</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07836244760839188</v>
+        <v>0.09319799576850959</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02994502306349446</v>
+        <v>0.02912564134313425</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>718715309.3928849</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2534554900.91186</v>
+        <v>2255106795.710353</v>
       </c>
       <c r="F33" t="n">
-        <v>0.159449170644669</v>
+        <v>0.2031425809429281</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05856852604184459</v>
+        <v>0.05167906972780142</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>128</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1267277485.740081</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1013623417.679747</v>
+        <v>1177348293.519001</v>
       </c>
       <c r="F34" t="n">
-        <v>0.119071698955445</v>
+        <v>0.1166586582107659</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02733321330085664</v>
+        <v>0.02116621207697529</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>506811744.5172867</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1306893652.985329</v>
+        <v>928067799.7279322</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0928453284494149</v>
+        <v>0.1118026210834185</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03184893912915992</v>
+        <v>0.03944368069364767</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>653446777.7985746</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2792181665.720866</v>
+        <v>2531563020.715717</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1668537214502706</v>
+        <v>0.1330252322769047</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02189272949212042</v>
+        <v>0.02568733963456887</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>107</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1396090831.458629</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2636700547.734068</v>
+        <v>1868133607.791764</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07079724418901417</v>
+        <v>0.07508776880786155</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03353773210989692</v>
+        <v>0.03594377553991192</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>114</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1318350388.753127</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1338077783.497996</v>
+        <v>2176751714.608143</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1092119320095974</v>
+        <v>0.08732926881420407</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03440349485660053</v>
+        <v>0.03634456469553167</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>669038963.8917402</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2217397446.622231</v>
+        <v>1721400372.490546</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1804525171777436</v>
+        <v>0.1494101429257041</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01991943309956634</v>
+        <v>0.02527901861486819</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1108698684.850569</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1745682217.245852</v>
+        <v>1285165637.559578</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1224446207217853</v>
+        <v>0.09978389330865345</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04630373195621046</v>
+        <v>0.05283132801219911</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>872841013.3423442</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1912985377.222499</v>
+        <v>2089238056.483529</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1504246397363035</v>
+        <v>0.1524626791319129</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04584188777463773</v>
+        <v>0.04741193478753556</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>106</v>
-      </c>
-      <c r="J41" t="n">
-        <v>956492771.3707277</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4223213610.558046</v>
+        <v>4198809978.432076</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1266297335342007</v>
+        <v>0.08738405741070936</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03587998835765596</v>
+        <v>0.04179553108675309</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>140</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2111606849.918623</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2025197000.951692</v>
+        <v>2540489657.017728</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1871442061485284</v>
+        <v>0.1766861662529467</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01854849921880577</v>
+        <v>0.02384508743478344</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>147</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1012598596.887558</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1683630419.589684</v>
+        <v>1598881756.811146</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07012339698676502</v>
+        <v>0.1022115711123438</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03204230392325352</v>
+        <v>0.02526505862765444</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>841815253.0376714</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1704168310.673546</v>
+        <v>2398039005.193778</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1247880265764626</v>
+        <v>0.1602196415425355</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03443691776260318</v>
+        <v>0.05138807828369083</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>852084116.3899093</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4973109684.876289</v>
+        <v>3560574936.33083</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1637676131728841</v>
+        <v>0.1783390174235518</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04273555836686669</v>
+        <v>0.05851815979750007</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>150</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2486554867.713848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4646593152.688682</v>
+        <v>3742218520.952491</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1356116556828617</v>
+        <v>0.1944901312409</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04920577222763221</v>
+        <v>0.0488219544409197</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>115</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2323296612.112407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4586674691.348179</v>
+        <v>2886597979.911014</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08233757029493445</v>
+        <v>0.1090511712302801</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02570329153817898</v>
+        <v>0.03665284273594658</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>138</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2293337345.938975</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1486949224.897234</v>
+        <v>1603989577.8896</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1442480962317672</v>
+        <v>0.1751347448592246</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03941183044516258</v>
+        <v>0.03712499586338126</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>743474646.5248781</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3869207807.76069</v>
+        <v>3392209606.927343</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1328334849260808</v>
+        <v>0.1369600040096234</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04558279048189666</v>
+        <v>0.05125771680969884</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>144</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1934603901.883027</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1012873538.486274</v>
+        <v>973085841.2937185</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1417651455993456</v>
+        <v>0.1598242734394738</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04774159503914545</v>
+        <v>0.05092008721969882</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>506436851.1434433</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4294293665.063319</v>
+        <v>4027068539.01748</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1089182736999576</v>
+        <v>0.10676960748062</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04460568194637549</v>
+        <v>0.04195235958642439</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>174</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2147146871.710877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3603982267.547668</v>
+        <v>3567238510.159879</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2041422519964693</v>
+        <v>0.1995937690917089</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0298575327233435</v>
+        <v>0.0283234543952457</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>121</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1801991124.491575</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4938970420.687325</v>
+        <v>4809825985.654431</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1576934893771181</v>
+        <v>0.1112519774466413</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05028651123434884</v>
+        <v>0.0432101510369735</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>137</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2469485348.150665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3709862948.041758</v>
+        <v>4539590143.866885</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2130396288151746</v>
+        <v>0.1424420461006857</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0268467754896145</v>
+        <v>0.0249559764314385</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1854931436.120539</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1723818215.215023</v>
+        <v>1496962254.958818</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1199205456087412</v>
+        <v>0.1509477483704775</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04115148908851565</v>
+        <v>0.04345352316234759</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>861909116.7163042</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3565252881.382786</v>
+        <v>3866223337.2337</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1276364360079675</v>
+        <v>0.1462679974862258</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01889936648321954</v>
+        <v>0.01749371025720869</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>134</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1782626492.572893</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1185829408.700694</v>
+        <v>1720878474.823656</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1544818514193337</v>
+        <v>0.1382618267220959</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03553569041304196</v>
+        <v>0.03010935285750367</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>592914764.1625279</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5383190739.507547</v>
+        <v>3292072591.020686</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09352122018938422</v>
+        <v>0.1219253927534427</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03311865499515964</v>
+        <v>0.0404329219321946</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>119</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2691595279.002882</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3505406112.742528</v>
+        <v>3643267954.226439</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1840672755038865</v>
+        <v>0.1274417107990622</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02418766599047184</v>
+        <v>0.02184114573797798</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>130</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1752703179.752391</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3046104785.17477</v>
+        <v>2246994788.592041</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1499833361431287</v>
+        <v>0.1142345943926527</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02529987955888513</v>
+        <v>0.0312723337552557</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>145</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1523052368.724731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1965491281.565449</v>
+        <v>1762050677.589711</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1769979965800823</v>
+        <v>0.185429171858535</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04384286037528617</v>
+        <v>0.04505455051410547</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>982745693.7096597</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4753819157.11701</v>
+        <v>5001758344.735104</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1057442206700693</v>
+        <v>0.08946413557946874</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04586800439231662</v>
+        <v>0.04740471855466099</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>123</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2376909607.349316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5524842226.447852</v>
+        <v>5413260883.698217</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1616079134335113</v>
+        <v>0.1783535277096547</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02501627051758387</v>
+        <v>0.03297798786193156</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>131</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2762421256.345881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5751485854.707103</v>
+        <v>5738196502.403352</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1105256376582996</v>
+        <v>0.1703184732890344</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02855695949094451</v>
+        <v>0.02557096161312056</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>151</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2875742841.439284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5304110705.550552</v>
+        <v>5352331628.509159</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1168586423197849</v>
+        <v>0.157228293319092</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0501830530927037</v>
+        <v>0.032771564492908</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>123</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2652055396.214962</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3347086390.714596</v>
+        <v>2774424457.779037</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08120362319058802</v>
+        <v>0.08881256964013573</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04271628185554506</v>
+        <v>0.0512832545739156</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>135</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1673543184.253404</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4810430653.074156</v>
+        <v>5906987668.63193</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1340502324467193</v>
+        <v>0.1258405620051154</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04612825056854444</v>
+        <v>0.03491946988526386</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>137</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2405215371.45559</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2307317554.331354</v>
+        <v>1842774110.45273</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1828097481537887</v>
+        <v>0.122258097714064</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05877976983000924</v>
+        <v>0.04046699648002482</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1153658821.871855</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2300918122.315786</v>
+        <v>3298039390.789305</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1017344493092097</v>
+        <v>0.09798937497667375</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04402928801997436</v>
+        <v>0.04024439678787035</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>120</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1150458992.628574</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3659166123.178311</v>
+        <v>3664811507.601625</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1415340260879658</v>
+        <v>0.1683760309658839</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03093235334052157</v>
+        <v>0.02470855706795626</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>154</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1829583067.214107</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1681273630.305521</v>
+        <v>2232239583.426347</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09293260034716458</v>
+        <v>0.06847242507642837</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05265186831620549</v>
+        <v>0.04747952809151215</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>840636812.9148041</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2821131956.705972</v>
+        <v>3291198842.550356</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09872778875533798</v>
+        <v>0.09577462210602783</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04105592627573341</v>
+        <v>0.0396811312376097</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>160</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1410565990.71369</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2915832143.531785</v>
+        <v>3050345446.530939</v>
       </c>
       <c r="F74" t="n">
-        <v>0.148281869835113</v>
+        <v>0.1199024712697161</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02608956231736931</v>
+        <v>0.0347179924684386</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>144</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1457916144.470953</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1621080532.740047</v>
+        <v>2108308985.475648</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1022431244736097</v>
+        <v>0.1460962157301932</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03125331912914243</v>
+        <v>0.03642429338259812</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>810540266.1550713</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3424814239.528095</v>
+        <v>4188669294.647054</v>
       </c>
       <c r="F76" t="n">
-        <v>0.121881511572607</v>
+        <v>0.08878439243732929</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03086145553023975</v>
+        <v>0.03301787093224351</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>98</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1712407080.355453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1750393754.880863</v>
+        <v>1769753823.612403</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1860839119996195</v>
+        <v>0.1715151574628492</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02024900606266471</v>
+        <v>0.02617074640358465</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>875196902.0931559</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3762091259.009149</v>
+        <v>4231411055.295166</v>
       </c>
       <c r="F78" t="n">
-        <v>0.131869305052758</v>
+        <v>0.1214802725802993</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03923512036001096</v>
+        <v>0.04848630470550449</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>147</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1881045612.283113</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1593414909.542131</v>
+        <v>1720563652.572797</v>
       </c>
       <c r="F79" t="n">
-        <v>0.113827069744431</v>
+        <v>0.1499634247241517</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03758398051551792</v>
+        <v>0.02708322009311591</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>796707505.3543117</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3893534417.132171</v>
+        <v>4891555562.0361</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1067703944217278</v>
+        <v>0.08199361251609902</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03565223500900297</v>
+        <v>0.0361056019378332</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1946767202.754986</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3196493231.719676</v>
+        <v>5108093936.4599</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08416085886204747</v>
+        <v>0.1122843858731285</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0279725851845951</v>
+        <v>0.03046661363148196</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1598246549.240806</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4966166565.962578</v>
+        <v>4046157745.444788</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1561506736063378</v>
+        <v>0.1884436469129648</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02561973289078008</v>
+        <v>0.02830230705562432</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>148</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2483083268.834656</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1927412497.051032</v>
+        <v>1905040350.705602</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1566538734431697</v>
+        <v>0.12204181281221</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03680645439712957</v>
+        <v>0.03121535658534768</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>963706224.8212575</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1864833702.801961</v>
+        <v>1602092528.804654</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1031999119338954</v>
+        <v>0.08813510078436952</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05172281850310066</v>
+        <v>0.04720956561525369</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>932416876.2246047</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3231498546.921201</v>
+        <v>2386310424.888705</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1840645614589725</v>
+        <v>0.1615150797315923</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05618346028806959</v>
+        <v>0.04214161805125468</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>159</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1615749359.214081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2774926868.306814</v>
+        <v>2561163519.718919</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1386583243356757</v>
+        <v>0.1282792180418506</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01868459253952906</v>
+        <v>0.0182416649762116</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>54</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1387463569.555599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1168541662.809198</v>
+        <v>1239038706.413989</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1520506437190936</v>
+        <v>0.1171722531797555</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03554366360881266</v>
+        <v>0.03542397340651375</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>584270878.9350771</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2546368667.770813</v>
+        <v>2289831821.892013</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1088502717539366</v>
+        <v>0.1517427447008129</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0322715673940571</v>
+        <v>0.02501324593008444</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>168</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1273184319.527422</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2398140666.934045</v>
+        <v>2830217375.248697</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1480798123764309</v>
+        <v>0.1540106165468393</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04074130480561472</v>
+        <v>0.03026363882559658</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>142</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1199070415.712751</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2018538080.671193</v>
+        <v>2016683702.879323</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1347906871625715</v>
+        <v>0.08563599955212681</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03894048753215829</v>
+        <v>0.04200841254444699</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1009269114.024979</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2042466968.506118</v>
+        <v>1445338396.062095</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1196284501198114</v>
+        <v>0.1559220790988285</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04107122564558065</v>
+        <v>0.05004445736838598</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1021233450.90233</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2652311473.302985</v>
+        <v>2087882601.729004</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09739073503172573</v>
+        <v>0.108067645361107</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04549600277290657</v>
+        <v>0.03721420336572018</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>120</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1326155732.135258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4723974214.4974</v>
+        <v>3921338878.322735</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09543142317671466</v>
+        <v>0.1136465218435564</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03339343802571718</v>
+        <v>0.04377456941624111</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>129</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2361987061.082333</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1757496581.26901</v>
+        <v>2038685753.318088</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1117786550726307</v>
+        <v>0.1385325242045385</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03019346150591873</v>
+        <v>0.0323597259608791</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>878748257.447791</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2977389355.6725</v>
+        <v>2128148076.57549</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1279540522502478</v>
+        <v>0.0929256114347868</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0339966975975867</v>
+        <v>0.04815917504987131</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>102</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1488694679.261921</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1688953477.445694</v>
+        <v>1964993933.856984</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1305879359576782</v>
+        <v>0.1284576732921174</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03616416465039874</v>
+        <v>0.03036146900253753</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>844476758.9148277</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4180276320.749144</v>
+        <v>4223536114.779965</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1396065060936133</v>
+        <v>0.1512257927240181</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01956137400732648</v>
+        <v>0.02681426356174017</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>137</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2090138231.264258</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3378126515.864186</v>
+        <v>3403251711.34701</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1030269365615517</v>
+        <v>0.0891540844442622</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02569809395563302</v>
+        <v>0.02824811942377129</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>112</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1689063268.29034</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3349526662.153311</v>
+        <v>3139885344.19975</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1205886773593424</v>
+        <v>0.1380049360973293</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02330947128271921</v>
+        <v>0.02161332258764741</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>134</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1674763342.416378</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4716808318.284944</v>
+        <v>4045469941.561102</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1317596157178102</v>
+        <v>0.1788646820400581</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0190009662843162</v>
+        <v>0.02470061111198308</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>130</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2358404287.062239</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2859419889.809419</v>
+        <v>2223104224.905007</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1697872070899485</v>
+        <v>0.1738732085840905</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05464117725227618</v>
+        <v>0.04870476408304147</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>171</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1429710015.375972</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_423.xlsx
+++ b/output/fit_clients/fit_round_423.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2240838889.607462</v>
+        <v>1899963941.140217</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08838619642384464</v>
+        <v>0.07836381967044892</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03976729755661877</v>
+        <v>0.04550730023223936</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2096401587.314756</v>
+        <v>1669587401.074638</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1690237098047134</v>
+        <v>0.1795538264683518</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0342260752784159</v>
+        <v>0.03952722093868075</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5165868855.915529</v>
+        <v>4842126946.540574</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1156605371677081</v>
+        <v>0.113042228491141</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03711665459678822</v>
+        <v>0.02634993301211624</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3866732264.324667</v>
+        <v>3055948027.408368</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07102754576571321</v>
+        <v>0.0987841462330637</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04218978119009453</v>
+        <v>0.04074271319023642</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2630638449.17939</v>
+        <v>2248227504.168808</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1088926620552438</v>
+        <v>0.1120913154428594</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03980167716875911</v>
+        <v>0.04017693756315501</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2412240714.516803</v>
+        <v>3117530313.790671</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06505494381340136</v>
+        <v>0.07284102270447933</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03489640038971087</v>
+        <v>0.04552608913644896</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3747495235.48527</v>
+        <v>3946197413.86333</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1810519427305769</v>
+        <v>0.1389512719882838</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03138143360457065</v>
+        <v>0.02560237820687029</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2175912094.275183</v>
+        <v>1813801102.056205</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1964960219777183</v>
+        <v>0.1452509906100155</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03357241508505573</v>
+        <v>0.02979564883256396</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5504333973.955582</v>
+        <v>5844549289.124135</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1715887944146145</v>
+        <v>0.216712779536521</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05401438340825302</v>
+        <v>0.04993047554516087</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3517526560.825786</v>
+        <v>3332998762.731892</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1603753632309224</v>
+        <v>0.1504160362644664</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04003504807670859</v>
+        <v>0.04193118685466955</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2694157388.354782</v>
+        <v>2172144943.016181</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1400381178106415</v>
+        <v>0.1550593633074628</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05140483705375558</v>
+        <v>0.04364511648621162</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4469036073.992742</v>
+        <v>4970204605.35702</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06595762648829809</v>
+        <v>0.08534460394946385</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02067036831487221</v>
+        <v>0.02191772045509233</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2737417744.526834</v>
+        <v>3656308232.416845</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1757284779850836</v>
+        <v>0.1859461170935788</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04007368048282259</v>
+        <v>0.04074079468538389</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1278501891.538187</v>
+        <v>1565988650.720237</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09624450357152398</v>
+        <v>0.0683378743248461</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03361993378992075</v>
+        <v>0.03256690277537473</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2714051444.768064</v>
+        <v>1978005143.400223</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1007301898751447</v>
+        <v>0.109393800073296</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04770038384677527</v>
+        <v>0.04194580744999427</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4062468625.598318</v>
+        <v>4889706032.986921</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1747405414056102</v>
+        <v>0.1352753893107395</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04615446418949879</v>
+        <v>0.04952921582050225</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3610096426.780063</v>
+        <v>2794410021.370564</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1153030006887589</v>
+        <v>0.1611066784037648</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02708256915828282</v>
+        <v>0.02187341278078914</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>839831131.8829594</v>
+        <v>1183441737.927012</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1430350044963447</v>
+        <v>0.1442460912098873</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01901472985150104</v>
+        <v>0.01940648910976882</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2133529509.382658</v>
+        <v>2423469631.043827</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1194324301961168</v>
+        <v>0.1514399683549136</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02420868024795371</v>
+        <v>0.02215431781423965</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2195152925.021904</v>
+        <v>1786270219.359664</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09899353793500563</v>
+        <v>0.08619399793387074</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03161752104173051</v>
+        <v>0.02799605167029905</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3527982155.55117</v>
+        <v>3923374614.443635</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1325112435352394</v>
+        <v>0.1246532105584698</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03771978885525979</v>
+        <v>0.04510952421942602</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1075520985.797939</v>
+        <v>1091049376.559238</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1302240786075309</v>
+        <v>0.1451030936483995</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04255355857863567</v>
+        <v>0.04714664570855107</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2749610571.197029</v>
+        <v>3023129622.397505</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1359997460229751</v>
+        <v>0.1111310401152221</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02611059880389043</v>
+        <v>0.03419509931949678</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1166607834.686934</v>
+        <v>1316307305.574893</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1157948374796813</v>
+        <v>0.09324962794246978</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01935934884617031</v>
+        <v>0.01923103854663082</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1255383174.005574</v>
+        <v>1368121698.438791</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07935589175240841</v>
+        <v>0.09739569842673894</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03845525788371423</v>
+        <v>0.038278234608488</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3086690515.472315</v>
+        <v>3633220603.269393</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1070246753060479</v>
+        <v>0.1350791033396452</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0211328831322393</v>
+        <v>0.02618737435537447</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2765287311.65683</v>
+        <v>3568190028.279927</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1383109399689404</v>
+        <v>0.09549235478057437</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04397864395756604</v>
+        <v>0.03779510669024445</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5261056477.229793</v>
+        <v>3620125752.199667</v>
       </c>
       <c r="F29" t="n">
-        <v>0.143992629290896</v>
+        <v>0.1173514752297114</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03991446008842835</v>
+        <v>0.04176181489923259</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1946423883.923481</v>
+        <v>2201815117.355465</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1030227700025192</v>
+        <v>0.0890073028435104</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03217345970986928</v>
+        <v>0.03169477122111564</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1072274871.378928</v>
+        <v>1207465421.834779</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08833870376069619</v>
+        <v>0.1099598249400022</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0484405192253121</v>
+        <v>0.05126638436023517</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1664824727.325713</v>
+        <v>1534466119.480635</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09319799576850959</v>
+        <v>0.1192463659839693</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02912564134313425</v>
+        <v>0.03343257321383079</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2255106795.710353</v>
+        <v>2475304975.964215</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2031425809429281</v>
+        <v>0.1668661063148503</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05167906972780142</v>
+        <v>0.04703095243658174</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1177348293.519001</v>
+        <v>1552770247.913388</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1166586582107659</v>
+        <v>0.0833340002482638</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02116621207697529</v>
+        <v>0.01837040619151074</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>928067799.7279322</v>
+        <v>1064828865.220984</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1118026210834185</v>
+        <v>0.1015167092789661</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03944368069364767</v>
+        <v>0.0407353366451223</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2531563020.715717</v>
+        <v>3014569294.566224</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1330252322769047</v>
+        <v>0.1377608084245335</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02568733963456887</v>
+        <v>0.01747241633960298</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1868133607.791764</v>
+        <v>2488484180.110762</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07508776880786155</v>
+        <v>0.09399027223009812</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03594377553991192</v>
+        <v>0.0309415710806162</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2176751714.608143</v>
+        <v>1830113228.126078</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08732926881420407</v>
+        <v>0.09922929434815841</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03634456469553167</v>
+        <v>0.02865863563674521</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1721400372.490546</v>
+        <v>1892584520.473697</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1494101429257041</v>
+        <v>0.1685884186242129</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02527901861486819</v>
+        <v>0.03261906202227099</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1285165637.559578</v>
+        <v>1474526311.16491</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09978389330865345</v>
+        <v>0.1160876206365985</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05283132801219911</v>
+        <v>0.03917639597164169</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2089238056.483529</v>
+        <v>1815815106.176698</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1524626791319129</v>
+        <v>0.1089821715404858</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04741193478753556</v>
+        <v>0.0357041759435866</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4198809978.432076</v>
+        <v>3127024386.361783</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08738405741070936</v>
+        <v>0.07880871367040167</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04179553108675309</v>
+        <v>0.03020333413249689</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2540489657.017728</v>
+        <v>2260438437.272447</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1766861662529467</v>
+        <v>0.1271117896377732</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02384508743478344</v>
+        <v>0.02519038300646402</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1598881756.811146</v>
+        <v>2158853589.497404</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1022115711123438</v>
+        <v>0.07985300793217745</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02526505862765444</v>
+        <v>0.02554096465762555</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2398039005.193778</v>
+        <v>1974974952.484935</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1602196415425355</v>
+        <v>0.1176583702410714</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05138807828369083</v>
+        <v>0.04536481903842306</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3560574936.33083</v>
+        <v>4221892938.394926</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1783390174235518</v>
+        <v>0.1197194965151707</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05851815979750007</v>
+        <v>0.03960720516192979</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3742218520.952491</v>
+        <v>4355890097.337515</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1944901312409</v>
+        <v>0.1246495766207478</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0488219544409197</v>
+        <v>0.03827740074728406</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2886597979.911014</v>
+        <v>2990284926.62026</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1090511712302801</v>
+        <v>0.07164203121782593</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03665284273594658</v>
+        <v>0.02866861554862139</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1603989577.8896</v>
+        <v>1498186326.384433</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1751347448592246</v>
+        <v>0.1561385972415847</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03712499586338126</v>
+        <v>0.02757949019462001</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3392209606.927343</v>
+        <v>3202922114.579423</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1369600040096234</v>
+        <v>0.1752123942430883</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05125771680969884</v>
+        <v>0.03535770187818497</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>973085841.2937185</v>
+        <v>941795583.241909</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1598242734394738</v>
+        <v>0.1187127800810821</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05092008721969882</v>
+        <v>0.03676621866824775</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4027068539.01748</v>
+        <v>3614776892.386682</v>
       </c>
       <c r="F52" t="n">
-        <v>0.10676960748062</v>
+        <v>0.1104456518186893</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04195235958642439</v>
+        <v>0.03928090854907652</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3567238510.159879</v>
+        <v>2943326125.78031</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1995937690917089</v>
+        <v>0.1977767480292084</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0283234543952457</v>
+        <v>0.03013825521812176</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4809825985.654431</v>
+        <v>4511019297.721152</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1112519774466413</v>
+        <v>0.1474837906141335</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0432101510369735</v>
+        <v>0.03965502907090804</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4539590143.866885</v>
+        <v>4283995536.869956</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1424420461006857</v>
+        <v>0.1576416947771123</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0249559764314385</v>
+        <v>0.02279093141018492</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1496962254.958818</v>
+        <v>1366273578.442901</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1509477483704775</v>
+        <v>0.1410641233196173</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04345352316234759</v>
+        <v>0.04571091940622806</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3866223337.2337</v>
+        <v>3281327595.509847</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1462679974862258</v>
+        <v>0.1553248942800363</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01749371025720869</v>
+        <v>0.01691222220594804</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1720878474.823656</v>
+        <v>1662153526.456933</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1382618267220959</v>
+        <v>0.1239553427467381</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03010935285750367</v>
+        <v>0.03285457012245274</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3292072591.020686</v>
+        <v>4667554927.791027</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1219253927534427</v>
+        <v>0.1162406004694308</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0404329219321946</v>
+        <v>0.03126601439162661</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3643267954.226439</v>
+        <v>2727935789.055186</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1274417107990622</v>
+        <v>0.1471499643875888</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02184114573797798</v>
+        <v>0.03125892975727203</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2246994788.592041</v>
+        <v>2881014332.646999</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1142345943926527</v>
+        <v>0.1700270008052469</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0312723337552557</v>
+        <v>0.03265119060549979</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1762050677.589711</v>
+        <v>1334353077.07854</v>
       </c>
       <c r="F62" t="n">
-        <v>0.185429171858535</v>
+        <v>0.1328299272312391</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04505455051410547</v>
+        <v>0.04406780977787424</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5001758344.735104</v>
+        <v>3724607875.342337</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08946413557946874</v>
+        <v>0.07321335385893477</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04740471855466099</v>
+        <v>0.04385177400205924</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5413260883.698217</v>
+        <v>4264948749.766069</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1783535277096547</v>
+        <v>0.1771331960906283</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03297798786193156</v>
+        <v>0.02522231031643567</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5738196502.403352</v>
+        <v>4975908351.060256</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1703184732890344</v>
+        <v>0.1065293460650295</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02557096161312056</v>
+        <v>0.03202652798292317</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5352331628.509159</v>
+        <v>3704082783.364192</v>
       </c>
       <c r="F66" t="n">
-        <v>0.157228293319092</v>
+        <v>0.1347647465812267</v>
       </c>
       <c r="G66" t="n">
-        <v>0.032771564492908</v>
+        <v>0.03711328643906362</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2774424457.779037</v>
+        <v>3446486041.955533</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08881256964013573</v>
+        <v>0.06948294756003488</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0512832545739156</v>
+        <v>0.03572543831586283</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5906987668.63193</v>
+        <v>4130088476.374226</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1258405620051154</v>
+        <v>0.100774299531509</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03491946988526386</v>
+        <v>0.04140654331271811</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1842774110.45273</v>
+        <v>1629991485.154737</v>
       </c>
       <c r="F69" t="n">
-        <v>0.122258097714064</v>
+        <v>0.1567534172866284</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04046699648002482</v>
+        <v>0.04225704934704023</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3298039390.789305</v>
+        <v>3575515745.19532</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09798937497667375</v>
+        <v>0.09478444699914335</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04024439678787035</v>
+        <v>0.04895487926898396</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3664811507.601625</v>
+        <v>3815896590.170043</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1683760309658839</v>
+        <v>0.1672746563932125</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02470855706795626</v>
+        <v>0.02804702053762009</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2232239583.426347</v>
+        <v>2088943765.883641</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06847242507642837</v>
+        <v>0.06699691477404823</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04747952809151215</v>
+        <v>0.0418432273460971</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3291198842.550356</v>
+        <v>3528909687.88951</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09577462210602783</v>
+        <v>0.07437997871042948</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0396811312376097</v>
+        <v>0.04293016208287705</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3050345446.530939</v>
+        <v>3434143912.687872</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1199024712697161</v>
+        <v>0.1241426094924594</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0347179924684386</v>
+        <v>0.03038883587936246</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2108308985.475648</v>
+        <v>1538349576.732487</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1460962157301932</v>
+        <v>0.1127231276294777</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03642429338259812</v>
+        <v>0.03078856801005072</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4188669294.647054</v>
+        <v>5254725440.020562</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08878439243732929</v>
+        <v>0.1156745340599156</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03301787093224351</v>
+        <v>0.03194365949687417</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1769753823.612403</v>
+        <v>1392839710.265362</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1715151574628492</v>
+        <v>0.1652940601005726</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02617074640358465</v>
+        <v>0.01971281678626757</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4231411055.295166</v>
+        <v>4313452332.111945</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1214802725802993</v>
+        <v>0.1371783541534701</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04848630470550449</v>
+        <v>0.04727256182922904</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1720563652.572797</v>
+        <v>1888832126.925077</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1499634247241517</v>
+        <v>0.1761097637069182</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02708322009311591</v>
+        <v>0.03498140747706917</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4891555562.0361</v>
+        <v>4142137604.291428</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08199361251609902</v>
+        <v>0.1107150674630313</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0361056019378332</v>
+        <v>0.03230386306788533</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5108093936.4599</v>
+        <v>4764211423.287868</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1122843858731285</v>
+        <v>0.1064161245335748</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03046661363148196</v>
+        <v>0.03100755299354076</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,16 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4046157745.444788</v>
+        <v>3516603552.004936</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1884436469129648</v>
+        <v>0.1427776659111908</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02830230705562432</v>
+        <v>0.02224116629245258</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1905040350.705602</v>
+        <v>2314069811.54564</v>
       </c>
       <c r="F83" t="n">
-        <v>0.12204181281221</v>
+        <v>0.1449812271544313</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03121535658534768</v>
+        <v>0.03266845496462827</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1602092528.804654</v>
+        <v>2151434268.002517</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08813510078436952</v>
+        <v>0.07396230522366261</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04720956561525369</v>
+        <v>0.04753772126579693</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2386310424.888705</v>
+        <v>3186988982.961274</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1615150797315923</v>
+        <v>0.1754906615412838</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04214161805125468</v>
+        <v>0.04778292940251887</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2561163519.718919</v>
+        <v>2388044713.079833</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1282792180418506</v>
+        <v>0.1586310772340515</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0182416649762116</v>
+        <v>0.02361862432568632</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1239038706.413989</v>
+        <v>1129683755.988235</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1171722531797555</v>
+        <v>0.1382730542487468</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03542397340651375</v>
+        <v>0.04073103871277373</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2289831821.892013</v>
+        <v>2618977095.46</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1517427447008129</v>
+        <v>0.1558035119622705</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02501324593008444</v>
+        <v>0.03954308100191017</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2830217375.248697</v>
+        <v>2853616799.460109</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1540106165468393</v>
+        <v>0.131892265146272</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03026363882559658</v>
+        <v>0.04051816035783568</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2016683702.879323</v>
+        <v>1895353636.124459</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08563599955212681</v>
+        <v>0.09103441053276859</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04200841254444699</v>
+        <v>0.04461639762410727</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1445338396.062095</v>
+        <v>1297720518.440377</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1559220790988285</v>
+        <v>0.1926193602411047</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05004445736838598</v>
+        <v>0.05349253892615494</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2087882601.729004</v>
+        <v>2168131433.598482</v>
       </c>
       <c r="F92" t="n">
-        <v>0.108067645361107</v>
+        <v>0.1070202562787197</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03721420336572018</v>
+        <v>0.02899596684915352</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3034,13 +3034,13 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3921338878.322735</v>
+        <v>3570986859.54835</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1136465218435564</v>
+        <v>0.08769435523070526</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04377456941624111</v>
+        <v>0.04705033159017509</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2038685753.318088</v>
+        <v>2313845827.034896</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1385325242045385</v>
+        <v>0.1131639476535658</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0323597259608791</v>
+        <v>0.04201280256830541</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2128148076.57549</v>
+        <v>2429875928.566917</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0929256114347868</v>
+        <v>0.09658476960666075</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04815917504987131</v>
+        <v>0.04486915689630262</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1964993933.856984</v>
+        <v>2354464882.992313</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1284576732921174</v>
+        <v>0.1003608025109888</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03036146900253753</v>
+        <v>0.03813949410940547</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4223536114.779965</v>
+        <v>4275313615.43352</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1512257927240181</v>
+        <v>0.1727186513296934</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02681426356174017</v>
+        <v>0.02676636699507483</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3403251711.34701</v>
+        <v>2555278564.745596</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0891540844442622</v>
+        <v>0.08612040474943074</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02824811942377129</v>
+        <v>0.03055992246638154</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3139885344.19975</v>
+        <v>3406316921.867032</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1380049360973293</v>
+        <v>0.1222634175388383</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02161332258764741</v>
+        <v>0.02283610167238354</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4045469941.561102</v>
+        <v>3284682820.687548</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1788646820400581</v>
+        <v>0.1609794567905981</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02470061111198308</v>
+        <v>0.0194156910685868</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2223104224.905007</v>
+        <v>2256412734.350732</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1738732085840905</v>
+        <v>0.190585290340207</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04870476408304147</v>
+        <v>0.04670430782898693</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_423.xlsx
+++ b/output/fit_clients/fit_round_423.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1899963941.140217</v>
+        <v>2508049563.252987</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07836381967044892</v>
+        <v>0.08731114709699048</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04550730023223936</v>
+        <v>0.03568724297967295</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1669587401.074638</v>
+        <v>1724764949.783657</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1795538264683518</v>
+        <v>0.1528153882441637</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03952722093868075</v>
+        <v>0.03695354845376877</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4842126946.540574</v>
+        <v>3282387740.090117</v>
       </c>
       <c r="F4" t="n">
-        <v>0.113042228491141</v>
+        <v>0.1223054643117921</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02634993301211624</v>
+        <v>0.03687960139849126</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>215</v>
+      </c>
+      <c r="J4" t="n">
+        <v>422</v>
+      </c>
+      <c r="K4" t="n">
+        <v>27.31396535610796</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3055948027.408368</v>
+        <v>3314665994.558456</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0987841462330637</v>
+        <v>0.1107938844934242</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04074271319023642</v>
+        <v>0.04472342055824152</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>174</v>
+      </c>
+      <c r="J5" t="n">
+        <v>422</v>
+      </c>
+      <c r="K5" t="n">
+        <v>38.96231255542711</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2248227504.168808</v>
+        <v>2425139637.565765</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1120913154428594</v>
+        <v>0.09876759592998946</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04017693756315501</v>
+        <v>0.05304608079751658</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3117530313.790671</v>
+        <v>2498057121.97723</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07284102270447933</v>
+        <v>0.08694186416321521</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04552608913644896</v>
+        <v>0.03786099381413861</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +709,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3946197413.86333</v>
+        <v>2784828368.648645</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1389512719882838</v>
+        <v>0.1635104933749641</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02560237820687029</v>
+        <v>0.02082777139844883</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>114</v>
+      </c>
+      <c r="J8" t="n">
+        <v>422</v>
+      </c>
+      <c r="K8" t="n">
+        <v>29.74058605377787</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +746,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1813801102.056205</v>
+        <v>2060473756.216146</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1452509906100155</v>
+        <v>0.1739274476960454</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02979564883256396</v>
+        <v>0.03082832192918351</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +787,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5844549289.124135</v>
+        <v>4016573070.297215</v>
       </c>
       <c r="F10" t="n">
-        <v>0.216712779536521</v>
+        <v>0.2128813814448827</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04993047554516087</v>
+        <v>0.03996035365982017</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>336</v>
+      </c>
+      <c r="J10" t="n">
+        <v>423</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3332998762.731892</v>
+        <v>3924382830.737727</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1504160362644664</v>
+        <v>0.1829105251113819</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04193118685466955</v>
+        <v>0.03469556326764302</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>175</v>
+      </c>
+      <c r="J11" t="n">
+        <v>423</v>
+      </c>
+      <c r="K11" t="n">
+        <v>50.01463666379144</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2172144943.016181</v>
+        <v>2107733712.67968</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1550593633074628</v>
+        <v>0.1983071965077397</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04364511648621162</v>
+        <v>0.0381874565136486</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +888,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4970204605.35702</v>
+        <v>4620476936.721441</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08534460394946385</v>
+        <v>0.06335121600392121</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02191772045509233</v>
+        <v>0.03106889175791663</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>221</v>
+      </c>
+      <c r="J13" t="n">
+        <v>423</v>
+      </c>
+      <c r="K13" t="n">
+        <v>41.25939598215201</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +925,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3656308232.416845</v>
+        <v>3786540350.598492</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1859461170935788</v>
+        <v>0.1610451160013127</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04074079468538389</v>
+        <v>0.03082445825550028</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>88</v>
+      </c>
+      <c r="J14" t="n">
+        <v>423</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +966,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1565988650.720237</v>
+        <v>1679595999.15459</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0683378743248461</v>
+        <v>0.1028241938810747</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03256690277537473</v>
+        <v>0.0314453918626461</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +1001,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1978005143.400223</v>
+        <v>2489405317.529424</v>
       </c>
       <c r="F16" t="n">
-        <v>0.109393800073296</v>
+        <v>0.07187167955096965</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04194580744999427</v>
+        <v>0.04352996419034864</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1030,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4889706032.986921</v>
+        <v>4679086520.378011</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1352753893107395</v>
+        <v>0.132230534948558</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04952921582050225</v>
+        <v>0.04727671121334168</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>205</v>
+      </c>
+      <c r="J17" t="n">
+        <v>423</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2794410021.370564</v>
+        <v>3888223732.413089</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1611066784037648</v>
+        <v>0.1437785216035788</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02187341278078914</v>
+        <v>0.03187381398268498</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>108</v>
+      </c>
+      <c r="J18" t="n">
+        <v>423</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1183441737.927012</v>
+        <v>1121395072.175909</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1442460912098873</v>
+        <v>0.1360156769666835</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01940648910976882</v>
+        <v>0.02734680556612898</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2423469631.043827</v>
+        <v>1954196906.788616</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1514399683549136</v>
+        <v>0.1063524819484411</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02215431781423965</v>
+        <v>0.02774005089890306</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1786270219.359664</v>
+        <v>1924027733.676712</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08619399793387074</v>
+        <v>0.0865680838592382</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02799605167029905</v>
+        <v>0.04514906174573738</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1205,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3923374614.443635</v>
+        <v>2678170615.476184</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1246532105584698</v>
+        <v>0.1009642044802037</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04510952421942602</v>
+        <v>0.05369403697370376</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>119</v>
+      </c>
+      <c r="J22" t="n">
+        <v>422</v>
+      </c>
+      <c r="K22" t="n">
+        <v>24.688255539188</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1091049376.559238</v>
+        <v>1138918873.773916</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1451030936483995</v>
+        <v>0.1612414789113987</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04714664570855107</v>
+        <v>0.04789362965155416</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1277,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3023129622.397505</v>
+        <v>3388061802.798214</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1111310401152221</v>
+        <v>0.1044482663150326</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03419509931949678</v>
+        <v>0.0289942303787907</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>134</v>
+      </c>
+      <c r="J24" t="n">
+        <v>422</v>
+      </c>
+      <c r="K24" t="n">
+        <v>34.32959441312696</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1316307305.574893</v>
+        <v>1447378456.616663</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09324962794246978</v>
+        <v>0.1017931729359873</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01923103854663082</v>
+        <v>0.02938759174828256</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1368121698.438791</v>
+        <v>895662858.7852515</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09739569842673894</v>
+        <v>0.07694807147078223</v>
       </c>
       <c r="G26" t="n">
-        <v>0.038278234608488</v>
+        <v>0.03592938487663411</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1384,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3633220603.269393</v>
+        <v>4143499856.928043</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1350791033396452</v>
+        <v>0.1173763587294391</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02618737435537447</v>
+        <v>0.0266885656804452</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>180</v>
+      </c>
+      <c r="J27" t="n">
+        <v>423</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3568190028.279927</v>
+        <v>3711077923.824841</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09549235478057437</v>
+        <v>0.1025593547614728</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03779510669024445</v>
+        <v>0.04650480432277062</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>104</v>
+      </c>
+      <c r="J28" t="n">
+        <v>423</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1454,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3620125752.199667</v>
+        <v>4205527969.287151</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1173514752297114</v>
+        <v>0.149500887793358</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04176181489923259</v>
+        <v>0.03875782659652195</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>352</v>
+      </c>
+      <c r="J29" t="n">
+        <v>423</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2201815117.355465</v>
+        <v>1509266497.097384</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0890073028435104</v>
+        <v>0.09818087132434526</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03169477122111564</v>
+        <v>0.03877701281560008</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1207465421.834779</v>
+        <v>1043216281.437407</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1099598249400022</v>
+        <v>0.08670818495406545</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05126638436023517</v>
+        <v>0.05156158871075375</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1534466119.480635</v>
+        <v>1468386284.98883</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1192463659839693</v>
+        <v>0.1106094547228027</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03343257321383079</v>
+        <v>0.02633110357552289</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2475304975.964215</v>
+        <v>2388099796.962771</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1668661063148503</v>
+        <v>0.1557112010269766</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04703095243658174</v>
+        <v>0.04190661074057677</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1552770247.913388</v>
+        <v>1015557585.107878</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0833340002482638</v>
+        <v>0.08158244457527968</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01837040619151074</v>
+        <v>0.01842462120553738</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1064828865.220984</v>
+        <v>1344154499.686638</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1015167092789661</v>
+        <v>0.10187404636351</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0407353366451223</v>
+        <v>0.04419382773014126</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1705,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3014569294.566224</v>
+        <v>2263270255.421073</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1377608084245335</v>
+        <v>0.1480811129518757</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01747241633960298</v>
+        <v>0.02381101437731007</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1740,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2488484180.110762</v>
+        <v>2484249366.961501</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09399027223009812</v>
+        <v>0.08412915754416436</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0309415710806162</v>
+        <v>0.03911565154624204</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1775,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1830113228.126078</v>
+        <v>1631593777.687473</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09922929434815841</v>
+        <v>0.09794208840615573</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02865863563674521</v>
+        <v>0.02553856245166624</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1892584520.473697</v>
+        <v>1684126169.321316</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1685884186242129</v>
+        <v>0.156222515533927</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03261906202227099</v>
+        <v>0.02222960328825835</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1474526311.16491</v>
+        <v>1564175241.630237</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1160876206365985</v>
+        <v>0.1357632527134509</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03917639597164169</v>
+        <v>0.04904819364789441</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1815815106.176698</v>
+        <v>2679331508.011562</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1089821715404858</v>
+        <v>0.1313975378937643</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0357041759435866</v>
+        <v>0.03336660550544358</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3127024386.361783</v>
+        <v>3789695882.867232</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07880871367040167</v>
+        <v>0.1221610709690592</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03020333413249689</v>
+        <v>0.04430153513375893</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>180</v>
+      </c>
+      <c r="J42" t="n">
+        <v>423</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2260438437.272447</v>
+        <v>2563874144.503996</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1271117896377732</v>
+        <v>0.1938345873450708</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02519038300646402</v>
+        <v>0.02000594768556715</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2158853589.497404</v>
+        <v>2337407877.48073</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07985300793217745</v>
+        <v>0.09163629738350258</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02554096465762555</v>
+        <v>0.02397178172194273</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1974974952.484935</v>
+        <v>1964276496.161458</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1176583702410714</v>
+        <v>0.1312225597333225</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04536481903842306</v>
+        <v>0.05316170277275133</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4221892938.394926</v>
+        <v>3985874893.331789</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1197194965151707</v>
+        <v>0.1611806238335796</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03960720516192979</v>
+        <v>0.04974340992636286</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>253</v>
+      </c>
+      <c r="J46" t="n">
+        <v>422</v>
+      </c>
+      <c r="K46" t="n">
+        <v>40.75484082911782</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4355890097.337515</v>
+        <v>3936440781.889869</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1246495766207478</v>
+        <v>0.1469211555108481</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03827740074728406</v>
+        <v>0.05881490873382326</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>189</v>
+      </c>
+      <c r="J47" t="n">
+        <v>423</v>
+      </c>
+      <c r="K47" t="n">
+        <v>41.9466914341883</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2129,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2990284926.62026</v>
+        <v>3856621662.616262</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07164203121782593</v>
+        <v>0.07741772929255226</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02866861554862139</v>
+        <v>0.02599410940282679</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>216</v>
+      </c>
+      <c r="J48" t="n">
+        <v>423</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1498186326.384433</v>
+        <v>1276264930.211897</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1561385972415847</v>
+        <v>0.1397013573341158</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02757949019462001</v>
+        <v>0.03593015183162138</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2199,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3202922114.579423</v>
+        <v>2889606998.004823</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1752123942430883</v>
+        <v>0.1343635783003749</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03535770187818497</v>
+        <v>0.04579596798975023</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>146</v>
+      </c>
+      <c r="J50" t="n">
+        <v>421</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>941795583.241909</v>
+        <v>1251763292.283363</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1187127800810821</v>
+        <v>0.1894245342636401</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03676621866824775</v>
+        <v>0.04782965778799161</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2269,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3614776892.386682</v>
+        <v>5135049838.137968</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1104456518186893</v>
+        <v>0.1203262974739291</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03928090854907652</v>
+        <v>0.05673553891032618</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>243</v>
+      </c>
+      <c r="J52" t="n">
+        <v>423</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2943326125.78031</v>
+        <v>2994521193.471442</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1977767480292084</v>
+        <v>0.1599129562366838</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03013825521812176</v>
+        <v>0.02313381485699529</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>62</v>
+      </c>
+      <c r="J53" t="n">
+        <v>419</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2339,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4511019297.721152</v>
+        <v>3776343343.400805</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1474837906141335</v>
+        <v>0.1562205763247891</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03965502907090804</v>
+        <v>0.03214539358112901</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>226</v>
+      </c>
+      <c r="J54" t="n">
+        <v>422</v>
+      </c>
+      <c r="K54" t="n">
+        <v>36.3705333009238</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4283995536.869956</v>
+        <v>3853817703.151124</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1576416947771123</v>
+        <v>0.1741141465193622</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02279093141018492</v>
+        <v>0.02429898713283479</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>210</v>
+      </c>
+      <c r="J55" t="n">
+        <v>422</v>
+      </c>
+      <c r="K55" t="n">
+        <v>39.60700981820976</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2413,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1366273578.442901</v>
+        <v>1690811277.814281</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1410641233196173</v>
+        <v>0.1426553868483616</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04571091940622806</v>
+        <v>0.04819117622513383</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2448,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3281327595.509847</v>
+        <v>3895520171.985218</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1553248942800363</v>
+        <v>0.183368369024574</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01691222220594804</v>
+        <v>0.02006104390051464</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>184</v>
+      </c>
+      <c r="J57" t="n">
+        <v>422</v>
+      </c>
+      <c r="K57" t="n">
+        <v>40.27694013918832</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1662153526.456933</v>
+        <v>1251571296.084388</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1239553427467381</v>
+        <v>0.1367629631832931</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03285457012245274</v>
+        <v>0.03126734861455409</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4667554927.791027</v>
+        <v>5143178993.579939</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1162406004694308</v>
+        <v>0.09521488485671778</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03126601439162661</v>
+        <v>0.03073263783922677</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>206</v>
+      </c>
+      <c r="J59" t="n">
+        <v>423</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2727935789.055186</v>
+        <v>3117763679.390195</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1471499643875888</v>
+        <v>0.1422377074372866</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03125892975727203</v>
+        <v>0.02233282179644766</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>82</v>
+      </c>
+      <c r="J60" t="n">
+        <v>420</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2881014332.646999</v>
+        <v>2130993313.790015</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1700270008052469</v>
+        <v>0.1733504946394464</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03265119060549979</v>
+        <v>0.02805153964639333</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1334353077.07854</v>
+        <v>1287071237.274454</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1328299272312391</v>
+        <v>0.1629464785901467</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04406780977787424</v>
+        <v>0.04604213221212676</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3724607875.342337</v>
+        <v>5428451542.148891</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07321335385893477</v>
+        <v>0.1017692745869159</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04385177400205924</v>
+        <v>0.04429615353996233</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>211</v>
+      </c>
+      <c r="J63" t="n">
+        <v>422</v>
+      </c>
+      <c r="K63" t="n">
+        <v>41.20616517151195</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4264948749.766069</v>
+        <v>4952682206.537366</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1771331960906283</v>
+        <v>0.1190777612057685</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02522231031643567</v>
+        <v>0.03000629364499703</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>212</v>
+      </c>
+      <c r="J64" t="n">
+        <v>422</v>
+      </c>
+      <c r="K64" t="n">
+        <v>38.31672209686842</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4975908351.060256</v>
+        <v>5724570855.961967</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1065293460650295</v>
+        <v>0.1100236932167167</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03202652798292317</v>
+        <v>0.02479217356156858</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>309</v>
+      </c>
+      <c r="J65" t="n">
+        <v>422</v>
+      </c>
+      <c r="K65" t="n">
+        <v>39.57874269916396</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2771,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3704082783.364192</v>
+        <v>3998530326.205105</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1347647465812267</v>
+        <v>0.1127465522738078</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03711328643906362</v>
+        <v>0.04518816877074614</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>208</v>
+      </c>
+      <c r="J66" t="n">
+        <v>423</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3446486041.955533</v>
+        <v>2377299562.326433</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06948294756003488</v>
+        <v>0.06802263853354457</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03572543831586283</v>
+        <v>0.04332133388555528</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2835,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4130088476.374226</v>
+        <v>5609551327.946682</v>
       </c>
       <c r="F68" t="n">
-        <v>0.100774299531509</v>
+        <v>0.1114178251934277</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04140654331271811</v>
+        <v>0.05051038738824699</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>231</v>
+      </c>
+      <c r="J68" t="n">
+        <v>422</v>
+      </c>
+      <c r="K68" t="n">
+        <v>40.51796606875955</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1629991485.154737</v>
+        <v>1570154952.620966</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1567534172866284</v>
+        <v>0.1793781385990576</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04225704934704023</v>
+        <v>0.05881956948678892</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3575515745.19532</v>
+        <v>2675709631.365487</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09478444699914335</v>
+        <v>0.06352421912347761</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04895487926898396</v>
+        <v>0.04033437269998054</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>56</v>
+      </c>
+      <c r="J70" t="n">
+        <v>413</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2942,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3815896590.170043</v>
+        <v>5056832467.723626</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1672746563932125</v>
+        <v>0.1414621360975229</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02804702053762009</v>
+        <v>0.0271448213748731</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>295</v>
+      </c>
+      <c r="J71" t="n">
+        <v>423</v>
+      </c>
+      <c r="K71" t="n">
+        <v>42.94412217747722</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2088943765.883641</v>
+        <v>2117566709.783874</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06699691477404823</v>
+        <v>0.1028364680676758</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0418432273460971</v>
+        <v>0.03510558399505657</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3020,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3528909687.88951</v>
+        <v>2347727802.649887</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07437997871042948</v>
+        <v>0.07183763366094756</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04293016208287705</v>
+        <v>0.04336046278852804</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3434143912.687872</v>
+        <v>3039919173.543491</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1241426094924594</v>
+        <v>0.114415049216078</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03038883587936246</v>
+        <v>0.03427374661581591</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>121</v>
+      </c>
+      <c r="J74" t="n">
+        <v>421</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1538349576.732487</v>
+        <v>1587639997.424386</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1127231276294777</v>
+        <v>0.1194612220502145</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03078856801005072</v>
+        <v>0.02389313546594478</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3119,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5254725440.020562</v>
+        <v>4638548464.072176</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1156745340599156</v>
+        <v>0.117342883944788</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03194365949687417</v>
+        <v>0.02334814204398587</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>201</v>
+      </c>
+      <c r="J76" t="n">
+        <v>423</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1392839710.265362</v>
+        <v>1854952538.965629</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1652940601005726</v>
+        <v>0.1655920295737791</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01971281678626757</v>
+        <v>0.02334261369883241</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3189,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4313452332.111945</v>
+        <v>3009995345.542812</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1371783541534701</v>
+        <v>0.1325896867163252</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04727256182922904</v>
+        <v>0.05293802987907383</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>212</v>
+      </c>
+      <c r="J78" t="n">
+        <v>422</v>
+      </c>
+      <c r="K78" t="n">
+        <v>24.48451485586162</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1888832126.925077</v>
+        <v>1403667082.60288</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1761097637069182</v>
+        <v>0.1249732146632457</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03498140747706917</v>
+        <v>0.03915458977145151</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3267,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4142137604.291428</v>
+        <v>3435028819.661429</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1107150674630313</v>
+        <v>0.09698456653648063</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03230386306788533</v>
+        <v>0.0306755248951152</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>206</v>
+      </c>
+      <c r="J80" t="n">
+        <v>421</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4764211423.287868</v>
+        <v>3348325444.192485</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1064161245335748</v>
+        <v>0.1296322062813851</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03100755299354076</v>
+        <v>0.03081795899087067</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>196</v>
+      </c>
+      <c r="J81" t="n">
+        <v>421</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3516603552.004936</v>
+        <v>4446650743.106989</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1427776659111908</v>
+        <v>0.1569169143538683</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02224116629245258</v>
+        <v>0.02125681192109714</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>287</v>
+      </c>
+      <c r="J82" t="n">
+        <v>423</v>
+      </c>
+      <c r="K82" t="n">
+        <v>43.91157448127943</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2314069811.54564</v>
+        <v>2469967944.249984</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1449812271544313</v>
+        <v>0.1016401552498606</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03266845496462827</v>
+        <v>0.03702672079843577</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3409,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2151434268.002517</v>
+        <v>2436626696.310422</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07396230522366261</v>
+        <v>0.08915100753486864</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04753772126579693</v>
+        <v>0.03649431557533215</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3186988982.961274</v>
+        <v>2916286506.780241</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1754906615412838</v>
+        <v>0.1222852684824444</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04778292940251887</v>
+        <v>0.03613205191246826</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>55</v>
+      </c>
+      <c r="J85" t="n">
+        <v>421</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2388044713.079833</v>
+        <v>2525846858.928011</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1586310772340515</v>
+        <v>0.1725745657273413</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02361862432568632</v>
+        <v>0.02047409935798216</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1129683755.988235</v>
+        <v>1091865291.873123</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1382730542487468</v>
+        <v>0.1561780321537657</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04073103871277373</v>
+        <v>0.03560065922708021</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2618977095.46</v>
+        <v>3609611986.62206</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1558035119622705</v>
+        <v>0.1420750614092591</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03954308100191017</v>
+        <v>0.03134242926073866</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>54</v>
+      </c>
+      <c r="J88" t="n">
+        <v>419</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2853616799.460109</v>
+        <v>2171584953.96534</v>
       </c>
       <c r="F89" t="n">
-        <v>0.131892265146272</v>
+        <v>0.1113724352101946</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04051816035783568</v>
+        <v>0.0399541120859505</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1895353636.124459</v>
+        <v>1668223453.159052</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09103441053276859</v>
+        <v>0.09326425410422791</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04461639762410727</v>
+        <v>0.03639169741691095</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1297720518.440377</v>
+        <v>1853501132.482778</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1926193602411047</v>
+        <v>0.154710524780153</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05349253892615494</v>
+        <v>0.05781154418212574</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2168131433.598482</v>
+        <v>2592960190.038182</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1070202562787197</v>
+        <v>0.09448721463357795</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02899596684915352</v>
+        <v>0.03721345036648545</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3570986859.54835</v>
+        <v>4786688939.773549</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08769435523070526</v>
+        <v>0.1027989202172203</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04705033159017509</v>
+        <v>0.05492850345585758</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>203</v>
+      </c>
+      <c r="J93" t="n">
+        <v>423</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2313845827.034896</v>
+        <v>2362315482.419399</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1131639476535658</v>
+        <v>0.1589643047063786</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04201280256830541</v>
+        <v>0.03941568172010673</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2429875928.566917</v>
+        <v>2797862593.918039</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09658476960666075</v>
+        <v>0.130779483169552</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04486915689630262</v>
+        <v>0.03968985463138991</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2354464882.992313</v>
+        <v>2258623103.986061</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1003608025109888</v>
+        <v>0.1400059269802689</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03813949410940547</v>
+        <v>0.0381382948547715</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3864,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4275313615.43352</v>
+        <v>4766605892.190439</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1727186513296934</v>
+        <v>0.1098960291044303</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02676636699507483</v>
+        <v>0.02115315595336935</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>221</v>
+      </c>
+      <c r="J97" t="n">
+        <v>422</v>
+      </c>
+      <c r="K97" t="n">
+        <v>40.72873614305011</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2555278564.745596</v>
+        <v>3316060881.076762</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08612040474943074</v>
+        <v>0.1223786533617526</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03055992246638154</v>
+        <v>0.02590355028978218</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>108</v>
+      </c>
+      <c r="J98" t="n">
+        <v>416</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3406316921.867032</v>
+        <v>3068291457.346545</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1222634175388383</v>
+        <v>0.1344612299254762</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02283610167238354</v>
+        <v>0.03042424767027459</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3284682820.687548</v>
+        <v>3977666365.476813</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1609794567905981</v>
+        <v>0.116615798622517</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0194156910685868</v>
+        <v>0.02290858976954167</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>197</v>
+      </c>
+      <c r="J100" t="n">
+        <v>423</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2256412734.350732</v>
+        <v>3261662209.182608</v>
       </c>
       <c r="F101" t="n">
-        <v>0.190585290340207</v>
+        <v>0.1972151618037589</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04670430782898693</v>
+        <v>0.05857789431586907</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
